--- a/广州房产对比.xlsx
+++ b/广州房产对比.xlsx
@@ -1,23 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="地区对比" sheetId="1" r:id="rId1"/>
+    <sheet name="南沙" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地供应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入选2019年度全国综合实力千强镇，排名第5名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南沙极——以南沙邮轮母港、南沙站为主，打造粤港澳大湾区世界高品质服务枢纽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建南沙火车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东部极——以新塘站、增城站为主，打造东部门户枢纽</t>
+  </si>
+  <si>
+    <t>新建南沙码头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建南沙枢纽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建广州东部交通中心(凯达尔交通枢纽)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建南沙物流基地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁：13号，立项16号线，规划23号线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁4号线，在建延线，在建18号线和22号线(快车30分钟到广州东)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有新塘客运站和新塘火车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +101,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,19 +135,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +441,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="79.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/广州房产对比.xlsx
+++ b/广州房产对比.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="地区对比" sheetId="1" r:id="rId1"/>
-    <sheet name="南沙" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="房产比对" sheetId="2" r:id="rId2"/>
+    <sheet name="买房流程手续" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,214 @@
   </si>
   <si>
     <t>已有新塘客运站和新塘火车站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业成熟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜力大但商业需完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居住环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新塘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、需要购买新房的人首先需要检查想要购买的楼盘是否能够提供“五证二书”。“五证二书”具体指《国有土地使用证》、《建设用地规划许可证》、《商品房销售(预售)许可证》、《建设工程规划许可证》、《建设工程施工许可证》和《住宅质量保证书》、《住宅使用说明书》。只有“五证二书”提供齐全的开发商才是正规合法的。</t>
+  </si>
+  <si>
+    <t>2、看产权，想要买新房的朋友必须了解清楚房屋的产权性质和产权使用年限。一般的普通住宅的产权都是七十年，商业性的房屋产权是四十年。在买新房流程中，一定要了解清楚房屋是否是小产权，不能因为价格便宜就购买小产权的房屋，这样将会给自己未来的生活带来很大的隐患。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、看环境，买新房流程当中，需要了解房屋环境，其中最重要的就是挑选房屋的地段，因为地段关系到价格以及未来的生活环境。另外需要查看房屋的配套吗，主要就是指商业陪她、医疗配套等等，具体就是指里市中心的距离，周边是否有学校、医院、超市等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、看物业，物业和业主是是息息相关的，它直接影响到业主的小区舒适度。只有一个负责人的物业，才可以让各位业主生活的更加舒服开心，所以购买前需要了解清楚物业的服务内容、物业需要缴纳的费用等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、选房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、看户型，买新房的人需要了解清楚该房屋的楼层数、户型、朝向、采光、楼间距等等，查看是否符合自己的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、签合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑选好楼盘，选择好房屋以后，就可以签到买房合同了，这个时候要注意的是要确定清楚房屋的具体面积、公摊面积、贷款问题、物业信息、违约责任惩罚等等，合同要尽量写清楚各个详细细节，这样才可以更好的保障业主的合法权益。另外缴纳房款的票据之类的业主一定要保存好</t>
+  </si>
+  <si>
+    <t>三、验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等到房子建好以后，业主需要到房屋现场去检查房屋质量，并且要开发商提供《住宅质量保证书》、《住宅使用说明书》、《房屋竣工验收证明书》和《入住许可证》。这样是为了万一出现问题可以及时的去找开发商来解决问题。</t>
+  </si>
+  <si>
+    <t>四、缴税办证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主和开发商签订好购买房屋的合同以后，缴纳了购房款以后，业主还需要去国家相关部门办理房屋产权证，等到领取到房屋的产权证以后，买新房的流程才算是圆满结束了</t>
+  </si>
+  <si>
+    <t>银行办理贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买新房流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买二手房流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/28434111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/38670504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧百式广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白江站300米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余55年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容积率高，绿化少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">东方名都 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富雅都市华庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每平均价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中森茗苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官湖地铁站1.5公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官湖地铁站1.4公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3室2厅2卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海联睿品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官湖地铁站1.6公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2室1厅1卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品秀星图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官湖地铁站300米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2室2厅1卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +314,21 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,18 +355,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -442,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -497,39 +725,49 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -541,36 +779,262 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2">
+        <v>194</v>
+      </c>
+      <c r="M2">
+        <v>24500</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O2">
+        <v>201912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3">
+        <v>220</v>
+      </c>
+      <c r="M3">
+        <v>27000</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O3">
+        <v>202112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4">
+        <v>180</v>
+      </c>
+      <c r="M4">
+        <v>18000</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O4">
+        <v>202103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5">
+        <v>185</v>
+      </c>
+      <c r="M5">
+        <v>21000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6">
+        <v>95</v>
+      </c>
+      <c r="K6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6">
+        <v>198</v>
+      </c>
+      <c r="M6">
+        <v>22000</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O6">
+        <v>202010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7">
+        <v>203</v>
+      </c>
+      <c r="M7">
+        <v>25000</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="O7">
+        <v>202012</v>
       </c>
     </row>
   </sheetData>
@@ -581,13 +1045,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/广州房产对比.xlsx
+++ b/广州房产对比.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="地区对比" sheetId="1" r:id="rId1"/>
-    <sheet name="房产比对" sheetId="2" r:id="rId2"/>
-    <sheet name="买房流程手续" sheetId="3" r:id="rId3"/>
+    <sheet name="新房比对" sheetId="2" r:id="rId2"/>
+    <sheet name="二手房比对" sheetId="4" r:id="rId3"/>
+    <sheet name="买房流程手续" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,14 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、需要购买新房的人首先需要检查想要购买的楼盘是否能够提供“五证二书”。“五证二书”具体指《国有土地使用证》、《建设用地规划许可证》、《商品房销售(预售)许可证》、《建设工程规划许可证》、《建设工程施工许可证》和《住宅质量保证书》、《住宅使用说明书》。只有“五证二书”提供齐全的开发商才是正规合法的。</t>
   </si>
   <si>
@@ -209,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>慧百式广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白江站300米</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,55 +222,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">东方名都 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富雅都市华庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每平均价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中森茗苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官湖地铁站1.5公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官湖地铁站1.4公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3室2厅2卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中海联睿品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官湖地铁站1.6公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官湖地铁站300米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2室2厅1卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华附小学、华师中学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余64年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2室1厅1卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2室2厅1卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>容积率高，绿化少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">东方名都 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富雅都市华庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每平均价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中森茗苑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官湖地铁站1.5公里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官湖地铁站1.4公里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3室2厅2卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中海联睿品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>官湖地铁站1.6公里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2室1厅1卫</t>
+    <t>容积率高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州创兴集团盈毅地产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠百氏广场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠百氏物业管理有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,11 +318,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>官湖地铁站300米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2室2厅1卫</t>
+    <t>周边配套不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州盈毅地产管理有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3室2厅1厨1卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假日花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市华正房地产发展有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州华力国际物业服务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08年交房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12年交房，剩余55年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2室2厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚太银座二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新塘站800米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市治宏物业管理有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,10 +850,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -794,46 +866,46 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.25">
@@ -841,22 +913,22 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>75</v>
@@ -882,19 +954,25 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
       </c>
       <c r="J3">
         <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L3">
         <v>220</v>
@@ -914,19 +992,16 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L4">
         <v>180</v>
@@ -946,19 +1021,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L5">
         <v>185</v>
@@ -978,19 +1050,16 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J6">
         <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L6">
         <v>198</v>
@@ -1010,19 +1079,25 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
       </c>
       <c r="J7">
         <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L7">
         <v>203</v>
@@ -1044,6 +1119,163 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2">
+        <v>96</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <v>210</v>
+      </c>
+      <c r="M2">
+        <v>21873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3">
+        <v>197</v>
+      </c>
+      <c r="M3">
+        <v>24912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4">
+        <v>198</v>
+      </c>
+      <c r="M4">
+        <v>25385</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -1056,83 +1288,83 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
